--- a/biology/Botanique/Sarcococca_confusa/Sarcococca_confusa.xlsx
+++ b/biology/Botanique/Sarcococca_confusa/Sarcococca_confusa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sarcococca confusa est un petit arbuste de la famille des Buxacées originaire de Chine.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un petit arbuste à feuillage persistant, de moins de deux mètres de haut et de croissance très lente. Les feuilles sont alternes, coriaces, vert brillant, entières, elliptiques, de trois à six centimètres de long.
 Sa floraison est hivernale. Les fleurs sont blanches et parfumées.
@@ -547,7 +561,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sarcococca confusa est un hybride de Sarcococca hookeriana et Sarcococca ruscifolia
 </t>
@@ -578,7 +594,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chine.
 </t>
@@ -609,7 +627,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sarcococca confusa commence à se répandre en France, en usage ornemental, comme plante d'ombre et de sol léger et un peu acide et surtout pour sa floraison hivernale parfumée.
 </t>
